--- a/spliced/falling/2023-03-21_15-37-22/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3119066953659063</v>
+        <v>0.4420366287231431</v>
       </c>
       <c r="B2" t="n">
-        <v>3.965313136577606</v>
+        <v>4.159920692443848</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.959281176328659</v>
+        <v>-1.852656066417694</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.328240633010866</v>
+        <v>-0.3119066953659063</v>
       </c>
       <c r="B3" t="n">
-        <v>3.452776372432707</v>
+        <v>3.965313136577606</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.262899994850159</v>
+        <v>-1.959281176328659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.280377209186554</v>
+        <v>-1.328240633010866</v>
       </c>
       <c r="B4" t="n">
-        <v>2.56487038731575</v>
+        <v>3.452776372432707</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.792269647121429</v>
+        <v>-2.262899994850159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.962558269500729</v>
+        <v>-2.280377209186554</v>
       </c>
       <c r="B5" t="n">
-        <v>2.719248294830324</v>
+        <v>2.56487038731575</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.176476478576662</v>
+        <v>-2.792269647121429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4654391407966572</v>
+        <v>-1.962558269500729</v>
       </c>
       <c r="B6" t="n">
-        <v>3.728965997695926</v>
+        <v>2.719248294830324</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.883096873760225</v>
+        <v>-4.176476478576662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8071434497833259</v>
+        <v>-0.4654391407966572</v>
       </c>
       <c r="B7" t="n">
-        <v>3.663023471832275</v>
+        <v>3.728965997695926</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.005156159400943</v>
+        <v>-4.883096873760225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.102240324020393</v>
+        <v>-0.8071434497833259</v>
       </c>
       <c r="B8" t="n">
-        <v>3.889697194099427</v>
+        <v>3.663023471832275</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.86714211106299</v>
+        <v>-7.005156159400943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8947885036468448</v>
+        <v>2.102240324020393</v>
       </c>
       <c r="B9" t="n">
-        <v>4.364453077316285</v>
+        <v>3.889697194099427</v>
       </c>
       <c r="C9" t="n">
-        <v>5.636359572410591</v>
+        <v>-1.86714211106299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.309004843235045</v>
+        <v>0.8947885036468448</v>
       </c>
       <c r="B10" t="n">
-        <v>3.808936268091196</v>
+        <v>4.364453077316285</v>
       </c>
       <c r="C10" t="n">
-        <v>8.007967770099629</v>
+        <v>5.636359572410591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.03219151496884</v>
+        <v>2.309004843235045</v>
       </c>
       <c r="B11" t="n">
-        <v>2.626607954502109</v>
+        <v>3.808936268091196</v>
       </c>
       <c r="C11" t="n">
-        <v>4.059313654899583</v>
+        <v>8.007967770099629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8205822110175988</v>
+        <v>7.03219151496884</v>
       </c>
       <c r="B12" t="n">
-        <v>3.666950583457956</v>
+        <v>2.626607954502109</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5117366313934346</v>
+        <v>4.059313654899583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.767575740814208</v>
+        <v>-0.8205822110175988</v>
       </c>
       <c r="B13" t="n">
-        <v>5.950162887573243</v>
+        <v>3.666950583457956</v>
       </c>
       <c r="C13" t="n">
-        <v>1.030251502990718</v>
+        <v>0.5117366313934346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.609463393688202</v>
+        <v>1.767575740814208</v>
       </c>
       <c r="B14" t="n">
-        <v>6.117009162902832</v>
+        <v>5.950162887573243</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02948403358459517</v>
+        <v>1.030251502990718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.414643406867981</v>
+        <v>1.609463393688202</v>
       </c>
       <c r="B15" t="n">
-        <v>3.881679594516751</v>
+        <v>6.117009162902832</v>
       </c>
       <c r="C15" t="n">
-        <v>1.453149795532228</v>
+        <v>-0.02948403358459517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7576336860656723</v>
+        <v>1.414643406867981</v>
       </c>
       <c r="B16" t="n">
-        <v>3.080292761325836</v>
+        <v>3.881679594516751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4208878278732262</v>
+        <v>1.453149795532228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7153766155242933</v>
+        <v>0.7576336860656723</v>
       </c>
       <c r="B17" t="n">
-        <v>3.394917845726014</v>
+        <v>3.080292761325836</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9988620877265951</v>
+        <v>0.4208878278732262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.686916232109074</v>
+        <v>0.7153766155242933</v>
       </c>
       <c r="B18" t="n">
-        <v>3.847963333129884</v>
+        <v>3.394917845726014</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.479923203587532</v>
+        <v>-0.9988620877265951</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.892059445381164</v>
+        <v>1.686916232109074</v>
       </c>
       <c r="B19" t="n">
-        <v>3.739774823188782</v>
+        <v>3.847963333129884</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.792329192161561</v>
+        <v>-1.479923203587532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.6834564805030802</v>
+        <v>1.892059445381164</v>
       </c>
       <c r="B20" t="n">
-        <v>2.868067562580109</v>
+        <v>3.739774823188782</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.777485311031344</v>
+        <v>-1.792329192161561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1287679672241191</v>
+        <v>-0.6834564805030802</v>
       </c>
       <c r="B21" t="n">
-        <v>2.86781930923462</v>
+        <v>2.868067562580109</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.374618053436277</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.3276743888855003</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.037657141685487</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.661090373992916</v>
+        <v>-2.777485311031344</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-22/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-22/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4420366287231431</v>
+        <v>-0.1190295219421371</v>
       </c>
       <c r="B2" t="n">
-        <v>4.159920692443848</v>
+        <v>3.933163046836853</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.852656066417694</v>
+        <v>-1.068776398897171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3119066953659063</v>
+        <v>1.005563497543334</v>
       </c>
       <c r="B3" t="n">
-        <v>3.965313136577606</v>
+        <v>4.189095079898834</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.959281176328659</v>
+        <v>-1.408742964267732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.328240633010866</v>
+        <v>0.09459304809570292</v>
       </c>
       <c r="B4" t="n">
-        <v>3.452776372432707</v>
+        <v>4.345824718475342</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.262899994850159</v>
+        <v>-2.468320369720459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.280377209186554</v>
+        <v>-0.07337808609008795</v>
       </c>
       <c r="B5" t="n">
-        <v>2.56487038731575</v>
+        <v>4.227709949016571</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.792269647121429</v>
+        <v>-1.961481541395187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.962558269500729</v>
+        <v>0.1517496109008791</v>
       </c>
       <c r="B6" t="n">
-        <v>2.719248294830324</v>
+        <v>4.091286063194275</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.176476478576662</v>
+        <v>-1.76620078086853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4654391407966572</v>
+        <v>0.5791012048721321</v>
       </c>
       <c r="B7" t="n">
-        <v>3.728965997695926</v>
+        <v>4.162412345409393</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.883096873760225</v>
+        <v>-1.810639068484306</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8071434497833259</v>
+        <v>0.4420366287231431</v>
       </c>
       <c r="B8" t="n">
-        <v>3.663023471832275</v>
+        <v>4.159920692443848</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.005156159400943</v>
+        <v>-1.852656066417694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.102240324020393</v>
+        <v>-0.3119066953659063</v>
       </c>
       <c r="B9" t="n">
-        <v>3.889697194099427</v>
+        <v>3.965313136577606</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.86714211106299</v>
+        <v>-1.959281176328659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8947885036468448</v>
+        <v>-1.328240633010866</v>
       </c>
       <c r="B10" t="n">
-        <v>4.364453077316285</v>
+        <v>3.452776372432707</v>
       </c>
       <c r="C10" t="n">
-        <v>5.636359572410591</v>
+        <v>-2.262899994850159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.309004843235045</v>
+        <v>-2.280377209186554</v>
       </c>
       <c r="B11" t="n">
-        <v>3.808936268091196</v>
+        <v>2.56487038731575</v>
       </c>
       <c r="C11" t="n">
-        <v>8.007967770099629</v>
+        <v>-2.792269647121429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.03219151496884</v>
+        <v>-1.962558269500729</v>
       </c>
       <c r="B12" t="n">
-        <v>2.626607954502109</v>
+        <v>2.719248294830324</v>
       </c>
       <c r="C12" t="n">
-        <v>4.059313654899583</v>
+        <v>-4.176476478576662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8205822110175988</v>
+        <v>-0.4654391407966572</v>
       </c>
       <c r="B13" t="n">
-        <v>3.666950583457956</v>
+        <v>3.728965997695926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5117366313934346</v>
+        <v>-4.883096873760225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.767575740814208</v>
+        <v>-0.8071434497833259</v>
       </c>
       <c r="B14" t="n">
-        <v>5.950162887573243</v>
+        <v>3.663023471832275</v>
       </c>
       <c r="C14" t="n">
-        <v>1.030251502990718</v>
+        <v>-7.005156159400943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.609463393688202</v>
+        <v>2.102240324020393</v>
       </c>
       <c r="B15" t="n">
-        <v>6.117009162902832</v>
+        <v>3.889697194099427</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02948403358459517</v>
+        <v>-1.86714211106299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.414643406867981</v>
+        <v>0.8947885036468448</v>
       </c>
       <c r="B16" t="n">
-        <v>3.881679594516751</v>
+        <v>4.364453077316285</v>
       </c>
       <c r="C16" t="n">
-        <v>1.453149795532228</v>
+        <v>5.636359572410591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7576336860656723</v>
+        <v>2.309004843235045</v>
       </c>
       <c r="B17" t="n">
-        <v>3.080292761325836</v>
+        <v>3.808936268091196</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4208878278732262</v>
+        <v>8.007967770099629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7153766155242933</v>
+        <v>7.03219151496884</v>
       </c>
       <c r="B18" t="n">
-        <v>3.394917845726014</v>
+        <v>2.626607954502109</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9988620877265951</v>
+        <v>4.059313654899583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.686916232109074</v>
+        <v>-0.8205822110175988</v>
       </c>
       <c r="B19" t="n">
-        <v>3.847963333129884</v>
+        <v>3.666950583457956</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.479923203587532</v>
+        <v>0.5117366313934346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.892059445381164</v>
+        <v>1.767575740814208</v>
       </c>
       <c r="B20" t="n">
-        <v>3.739774823188782</v>
+        <v>5.950162887573243</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.792329192161561</v>
+        <v>1.030251502990718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.609463393688202</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.117009162902832</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.02948403358459517</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.414643406867981</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.881679594516751</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.453149795532228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.7576336860656723</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.080292761325836</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4208878278732262</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.7153766155242933</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.394917845726014</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9988620877265951</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.686916232109074</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.847963333129884</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.479923203587532</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.892059445381164</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.739774823188782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.792329192161561</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.6834564805030802</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>2.868067562580109</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>-2.777485311031344</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1287679672241191</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.86781930923462</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.374618053436277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.3276743888855003</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.037657141685487</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.661090373992916</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1350092887878401</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.256921470165254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.639114320278168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1058316230773927</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.051037281751632</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.528261989355087</v>
       </c>
     </row>
   </sheetData>
